--- a/NewtonRaphson/model.xlsx
+++ b/NewtonRaphson/model.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="node" sheetId="1" r:id="rId1"/>
     <sheet name="element" sheetId="2" r:id="rId2"/>
+    <sheet name="material" sheetId="3" r:id="rId3"/>
+    <sheet name="boundary" sheetId="4" r:id="rId4"/>
+    <sheet name="nodalforce" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +45,42 @@
   </si>
   <si>
     <t>Material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Force</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,8 +124,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -388,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -531,6 +571,116 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1.2</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1.3</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1.4</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1.5</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1.6</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1.7</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1.8</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1.9</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -540,10 +690,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -705,8 +855,296 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>206000000000</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.2566E-7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.2566000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>81282</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/NewtonRaphson/model.xlsx
+++ b/NewtonRaphson/model.xlsx
@@ -1112,7 +1112,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1139,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>81282</v>
+        <v>81543</v>
       </c>
     </row>
   </sheetData>

--- a/NewtonRaphson/model.xlsx
+++ b/NewtonRaphson/model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="node" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,14 +28,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NodeNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Node1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,6 +73,10 @@
   </si>
   <si>
     <t>Force</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固支为0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -439,245 +435,179 @@
     <col min="1" max="1" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0.2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0.3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>0.4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0.6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>0.7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>0.8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>0.9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>1.2</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>1.3</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>1.4</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>1.5</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>1.6</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>1.7</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>1.8</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>1.9</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.2</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.3</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.4</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.5</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.6</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.7</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.8</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.9</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1.2</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1.3</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1.4</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1.5</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1.6</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1.7</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1.8</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1.9</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>21</v>
-      </c>
       <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
         <v>0</v>
       </c>
     </row>
@@ -690,10 +620,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -701,297 +631,234 @@
     <col min="1" max="1" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>16</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>17</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19">
-        <v>19</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21">
-        <v>21</v>
-      </c>
-      <c r="D21">
         <v>1</v>
       </c>
     </row>
@@ -1006,7 +873,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1016,13 +883,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1045,10 +912,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1056,18 +923,21 @@
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1078,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1089,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1111,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1122,13 +992,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
